--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EB8302E-F65A-437B-9AE9-D7AA44B58EEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B66F9D-92FF-4985-AC8F-A45F1B90BE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>Part Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,6 +88,26 @@
   </si>
   <si>
     <t>bodyB</t>
+  </si>
+  <si>
+    <t>m3 nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3 anti-slip nut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>metal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3 x 8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m3 x 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -431,15 +451,16 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="7" width="9.140625" style="1"/>
+    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
@@ -617,20 +638,56 @@
       <c r="A13" s="2">
         <v>12</v>
       </c>
+      <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1">
+        <v>12</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
+      <c r="B14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="1">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
+      <c r="B15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B66F9D-92FF-4985-AC8F-A45F1B90BE76}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED1319-7929-43DA-BA0C-386BAAD48BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,13 +72,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3DP</t>
-  </si>
-  <si>
-    <t>3DP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>SG90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -107,6 +100,13 @@
   </si>
   <si>
     <t>m3 x 28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3DP(PET)</t>
+  </si>
+  <si>
+    <t>3DP(PET)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +451,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection sqref="A1:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -459,7 +459,7 @@
     <col min="1" max="1" width="3.7109375" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -491,7 +491,7 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -499,13 +499,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -519,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -533,7 +533,7 @@
         <v>4</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -547,7 +547,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -561,7 +561,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -575,7 +575,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -589,7 +589,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>8</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -617,7 +617,7 @@
         <v>1</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -631,7 +631,7 @@
         <v>1</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -639,13 +639,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C13" s="1">
         <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -653,13 +653,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C14" s="1">
         <v>20</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -667,13 +667,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C15" s="1">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -681,13 +681,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
         <v>4</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">

--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20387"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FED1319-7929-43DA-BA0C-386BAAD48BEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{773C3636-904E-4F61-A026-682F3940959D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>Part Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,6 +107,10 @@
   </si>
   <si>
     <t>3DP(PET)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>m2 x 7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -451,7 +455,7 @@
   <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D16"/>
+      <selection activeCell="D17" sqref="A1:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -690,27 +694,36 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="1">
+        <v>16</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
